--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H2">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I2">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J2">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>245.2106650650208</v>
+        <v>413.380298276484</v>
       </c>
       <c r="R2">
-        <v>2206.895985585187</v>
+        <v>3720.422684488356</v>
       </c>
       <c r="S2">
-        <v>0.1804048884844729</v>
+        <v>0.4402270638133865</v>
       </c>
       <c r="T2">
-        <v>0.1804048884844729</v>
+        <v>0.4402270638133865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H3">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I3">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J3">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>151.8128532254461</v>
+        <v>237.854593088035</v>
       </c>
       <c r="R3">
-        <v>1366.315679029015</v>
+        <v>2140.691337792315</v>
       </c>
       <c r="S3">
-        <v>0.1116908224582484</v>
+        <v>0.2533019342388677</v>
       </c>
       <c r="T3">
-        <v>0.1116908224582484</v>
+        <v>0.2533019342388677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H4">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I4">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J4">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>44.07264006602167</v>
+        <v>103.601990014684</v>
       </c>
       <c r="R4">
-        <v>396.653760594195</v>
+        <v>932.417910132156</v>
       </c>
       <c r="S4">
-        <v>0.03242485278614885</v>
+        <v>0.1103303666370755</v>
       </c>
       <c r="T4">
-        <v>0.03242485278614885</v>
+        <v>0.1103303666370755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H5">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I5">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J5">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>384.186725436703</v>
+        <v>100.8642529905706</v>
       </c>
       <c r="R5">
-        <v>3457.680528930327</v>
+        <v>907.7782769151358</v>
       </c>
       <c r="S5">
-        <v>0.2826515043350378</v>
+        <v>0.1074148287252699</v>
       </c>
       <c r="T5">
-        <v>0.2826515043350377</v>
+        <v>0.1074148287252699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H6">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I6">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J6">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>237.854593088035</v>
+        <v>58.03621012473778</v>
       </c>
       <c r="R6">
-        <v>2140.691337792315</v>
+        <v>522.32589112264</v>
       </c>
       <c r="S6">
-        <v>0.1749929242685609</v>
+        <v>0.0618053411945188</v>
       </c>
       <c r="T6">
-        <v>0.1749929242685609</v>
+        <v>0.0618053411945188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H7">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I7">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J7">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>69.05133291745501</v>
+        <v>25.27875028088177</v>
       </c>
       <c r="R7">
-        <v>621.4619962570951</v>
+        <v>227.508752527936</v>
       </c>
       <c r="S7">
-        <v>0.05080202368593755</v>
+        <v>0.0269204653908816</v>
       </c>
       <c r="T7">
-        <v>0.05080202368593753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.227394</v>
-      </c>
-      <c r="H8">
-        <v>3.682182</v>
-      </c>
-      <c r="I8">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J8">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>102.8289443333333</v>
-      </c>
-      <c r="N8">
-        <v>308.486833</v>
-      </c>
-      <c r="O8">
-        <v>0.5559120396302443</v>
-      </c>
-      <c r="P8">
-        <v>0.5559120396302443</v>
-      </c>
-      <c r="Q8">
-        <v>126.2116293010673</v>
-      </c>
-      <c r="R8">
-        <v>1135.904663709606</v>
-      </c>
-      <c r="S8">
-        <v>0.09285564681073369</v>
-      </c>
-      <c r="T8">
-        <v>0.09285564681073369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.227394</v>
-      </c>
-      <c r="H9">
-        <v>3.682182</v>
-      </c>
-      <c r="I9">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J9">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>63.66262833333334</v>
-      </c>
-      <c r="N9">
-        <v>190.987885</v>
-      </c>
-      <c r="O9">
-        <v>0.3441717873742007</v>
-      </c>
-      <c r="P9">
-        <v>0.3441717873742007</v>
-      </c>
-      <c r="Q9">
-        <v>78.13912804056335</v>
-      </c>
-      <c r="R9">
-        <v>703.2521523650701</v>
-      </c>
-      <c r="S9">
-        <v>0.05748804064739134</v>
-      </c>
-      <c r="T9">
-        <v>0.05748804064739134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.227394</v>
-      </c>
-      <c r="H10">
-        <v>3.682182</v>
-      </c>
-      <c r="I10">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J10">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.481835</v>
-      </c>
-      <c r="N10">
-        <v>55.445505</v>
-      </c>
-      <c r="O10">
-        <v>0.09991617299555509</v>
-      </c>
-      <c r="P10">
-        <v>0.09991617299555508</v>
-      </c>
-      <c r="Q10">
-        <v>22.68449338799</v>
-      </c>
-      <c r="R10">
-        <v>204.16044049191</v>
-      </c>
-      <c r="S10">
-        <v>0.0166892965234687</v>
-      </c>
-      <c r="T10">
-        <v>0.0166892965234687</v>
+        <v>0.0269204653908816</v>
       </c>
     </row>
   </sheetData>
